--- a/benchmarks/ex.xlsx
+++ b/benchmarks/ex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>5_50_15x15</t>
   </si>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -537,10 +537,10 @@
         <v>938</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -549,10 +549,10 @@
         <v>28</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>1186</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,22 +560,22 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -598,31 +598,31 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2024</v>
+        <v>1989</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>1963</v>
+        <v>1900</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>1920</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+        <v>1976</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1870</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>2831</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,19 +703,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -724,10 +724,10 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,22 +735,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,22 +770,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>1239</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>162</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
+        <v>189</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>174</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -843,19 +843,19 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14">
-        <v>419</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
       </c>
       <c r="J14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>870</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -913,19 +913,19 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -934,10 +934,10 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>392</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -948,31 +948,31 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>465</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
+        <v>431</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>426</v>
       </c>
       <c r="J16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,22 +980,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -1004,10 +1004,10 @@
         <v>28</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17">
-        <v>866</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,22 +1015,22 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="K18">
-        <v>1042</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,22 +1050,22 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -1074,10 +1074,10 @@
         <v>28</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>1012</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,23 +1085,23 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
+        <v>374</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>370</v>
       </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>379</v>
-      </c>
       <c r="H20" t="s">
         <v>28</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>28</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1123,31 +1123,31 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>991</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1158,31 +1158,31 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>758</v>
+        <v>843</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>1592</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1193,19 +1193,19 @@
         <v>7</v>
       </c>
       <c r="C23">
+        <v>254</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
         <v>276</v>
       </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>265</v>
-      </c>
       <c r="F23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -1214,10 +1214,10 @@
         <v>28</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>481</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
+        <v>446</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>464</v>
       </c>
       <c r="J24">
         <v>22</v>
       </c>
       <c r="K24">
-        <v>902</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
